--- a/Assets/Excels/Games/WPG/WPGAnswer.xlsx
+++ b/Assets/Excels/Games/WPG/WPGAnswer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\196th.DESKTOP-3O7TGRH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\196th.DESKTOP-3O7TGRH\Desktop\UnityProject\Cooperation\Assets\Excels\Games\WPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Games/WPG/WPGAnswer.xlsx
+++ b/Assets/Excels/Games/WPG/WPGAnswer.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Games/WPG/WPGAnswer.xlsx
+++ b/Assets/Excels/Games/WPG/WPGAnswer.xlsx
@@ -24,13 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>answer1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>answer2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,68 +377,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Games/WPG/WPGAnswer.xlsx
+++ b/Assets/Excels/Games/WPG/WPGAnswer.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excels/Games/WPG/WPGAnswer.xlsx
+++ b/Assets/Excels/Games/WPG/WPGAnswer.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -410,39 +410,39 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -450,39 +450,39 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">

--- a/Assets/Excels/Games/WPG/WPGAnswer.xlsx
+++ b/Assets/Excels/Games/WPG/WPGAnswer.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -487,22 +487,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
